--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E3A4DC-6A65-4A84-967B-820DF737E780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22500" yWindow="3360" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="words" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -104,6 +98,27 @@
   </si>
   <si>
     <t>容颜</t>
+  </si>
+  <si>
+    <t>委员会</t>
+  </si>
+  <si>
+    <t>承诺</t>
+  </si>
+  <si>
+    <t>包干</t>
+  </si>
+  <si>
+    <t>包干制</t>
+  </si>
+  <si>
+    <t>教训</t>
+  </si>
+  <si>
+    <t>发人深思</t>
+  </si>
+  <si>
+    <t>干枯</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -194,17 +209,41 @@
     <t>1n. appearance; looks; mien; complexion</t>
   </si>
   <si>
+    <t>1.) n. committee, commision, council</t>
+  </si>
+  <si>
+    <t>1.) v. to promise, to undertake to do something; 2.) n. a promise, a commitment</t>
+  </si>
+  <si>
+    <t>1.) v. to be responsible for a task until its completion, to have full responsibility of a job</t>
+  </si>
+  <si>
+    <t>1.) n. a system of payment partly in kind and partly in cash</t>
+  </si>
+  <si>
+    <t>1.) n. lesson, moral; 2.) v. to chide, teach sb. a lesson</t>
+  </si>
+  <si>
+    <t>1.) idiom. thought-provoking; 2.) v. to give one food for though</t>
+  </si>
+  <si>
+    <t>1.) v. to dry up, wither, shrivel, wizen; 2.) adj. withered, dried up</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
     <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,14 +306,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -321,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,27 +384,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,24 +418,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -598,20 +593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,279 +611,356 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -119,6 +119,39 @@
   </si>
   <si>
     <t>干枯</t>
+  </si>
+  <si>
+    <t>遗产</t>
+  </si>
+  <si>
+    <t>分配</t>
+  </si>
+  <si>
+    <t>争吵</t>
+  </si>
+  <si>
+    <t>内部网</t>
+  </si>
+  <si>
+    <t>外地</t>
+  </si>
+  <si>
+    <t>民工</t>
+  </si>
+  <si>
+    <t>飞来横祸</t>
+  </si>
+  <si>
+    <t>合约</t>
+  </si>
+  <si>
+    <t>无效</t>
+  </si>
+  <si>
+    <t>郑重声明</t>
+  </si>
+  <si>
+    <t>清白</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -230,6 +263,39 @@
     <t>1.) v. to dry up, wither, shrivel, wizen; 2.) adj. withered, dried up</t>
   </si>
   <si>
+    <t>1.) n. heritage, legacy, inheritance</t>
+  </si>
+  <si>
+    <t>1.) v. distribute, allot; 2.) v. assign, dispose; 3.) n. [economics] distribution</t>
+  </si>
+  <si>
+    <t>1.) v. quarrel, wrangle, squabble, dispute</t>
+  </si>
+  <si>
+    <t>1.) n. intranet</t>
+  </si>
+  <si>
+    <t>1.) n. phr. parts of the country other than where one is</t>
+  </si>
+  <si>
+    <t>1.) n. laborer working on a public project; 2.) n. migrant worker</t>
+  </si>
+  <si>
+    <t>1.) n. unexpected disaster, sudden accident</t>
+  </si>
+  <si>
+    <t>1.) n. contract</t>
+  </si>
+  <si>
+    <t>1.) v. of (or to) no avail, to no effect; 2.) adj. invalid, null and void; 3.) adj. ineffective</t>
+  </si>
+  <si>
+    <t>1.) v. to solemnly declare; 2.) n. a solemn declaration</t>
+  </si>
+  <si>
+    <t>1.) adj. innocent, pure, clean, stainless</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -237,6 +303,9 @@
   </si>
   <si>
     <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
   </si>
 </sst>
 </file>
@@ -594,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,10 +685,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -627,10 +696,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -638,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -649,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -660,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -671,10 +740,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -682,10 +751,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -693,10 +762,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -704,10 +773,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -715,10 +784,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -726,10 +795,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -737,10 +806,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -748,10 +817,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -759,10 +828,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -770,10 +839,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -781,10 +850,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -792,10 +861,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -803,10 +872,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -814,10 +883,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -825,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -836,10 +905,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -847,10 +916,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -858,10 +927,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -869,10 +938,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -880,10 +949,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -891,10 +960,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -902,10 +971,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -913,10 +982,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -924,10 +993,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -935,10 +1004,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -946,10 +1015,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -957,10 +1026,131 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -152,6 +152,21 @@
   </si>
   <si>
     <t>清白</t>
+  </si>
+  <si>
+    <t>当选</t>
+  </si>
+  <si>
+    <t>落选</t>
+  </si>
+  <si>
+    <t>开除公职</t>
+  </si>
+  <si>
+    <t>开除</t>
+  </si>
+  <si>
+    <t>讽刺</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -296,6 +311,21 @@
     <t>1.) adj. innocent, pure, clean, stainless</t>
   </si>
   <si>
+    <t>1.) v. be elected/selected</t>
+  </si>
+  <si>
+    <t>1.) v. fail to be chosen/elected</t>
+  </si>
+  <si>
+    <t>1.) v. to discharge/expel from public employment</t>
+  </si>
+  <si>
+    <t>1.) v. to expel, discharge, dismiss, fire, lay off, sack</t>
+  </si>
+  <si>
+    <t>1.) v. to satirize, ridicule, taunt, mock; 2.) n. sarcasm, irony, satire</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -306,6 +336,9 @@
   </si>
   <si>
     <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
   </si>
 </sst>
 </file>
@@ -663,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -685,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -696,10 +729,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -707,10 +740,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -718,10 +751,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -729,10 +762,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -740,10 +773,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -751,10 +784,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -762,10 +795,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -773,10 +806,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -784,10 +817,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -795,10 +828,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -806,10 +839,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -817,10 +850,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -828,10 +861,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -839,10 +872,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -850,10 +883,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -861,10 +894,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -872,10 +905,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -883,10 +916,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -894,10 +927,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -905,10 +938,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -916,10 +949,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -927,10 +960,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -938,10 +971,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -949,10 +982,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -960,10 +993,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -971,10 +1004,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -982,10 +1015,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -993,10 +1026,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1004,10 +1037,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1015,10 +1048,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1026,10 +1059,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1037,10 +1070,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1048,10 +1081,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1059,10 +1092,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1070,10 +1103,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1081,10 +1114,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1092,10 +1125,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1103,10 +1136,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C40" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1114,10 +1147,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1125,10 +1158,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1136,10 +1169,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1147,10 +1180,65 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -167,6 +167,33 @@
   </si>
   <si>
     <t>讽刺</t>
+  </si>
+  <si>
+    <t>即</t>
+  </si>
+  <si>
+    <t>热量</t>
+  </si>
+  <si>
+    <t>配比</t>
+  </si>
+  <si>
+    <t>摆放</t>
+  </si>
+  <si>
+    <t>摄入</t>
+  </si>
+  <si>
+    <t>对应</t>
+  </si>
+  <si>
+    <t>除此以外</t>
+  </si>
+  <si>
+    <t>逐渐</t>
+  </si>
+  <si>
+    <t>养成</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -326,6 +353,33 @@
     <t>1.) v. to satirize, ridicule, taunt, mock; 2.) n. sarcasm, irony, satire</t>
   </si>
   <si>
+    <t>1.) v. 就是; 2.) adv. Immediately</t>
+  </si>
+  <si>
+    <t>1.) n. calories; 2.) heat, amount of heat</t>
+  </si>
+  <si>
+    <t>1.) matching, proportioning</t>
+  </si>
+  <si>
+    <t>1.) v. to set up, arrange, lay out</t>
+  </si>
+  <si>
+    <t>1.) v. to take in, to absorb, to consume; 2.) intake, consumption</t>
+  </si>
+  <si>
+    <t>1.) v. to correspond; 2.) adj. corresponding</t>
+  </si>
+  <si>
+    <t>1.) prep. beside, except for; 2.) prep. phr. in addition to; 3.) adv. otherwise</t>
+  </si>
+  <si>
+    <t>1.) adv. gradually, little by little</t>
+  </si>
+  <si>
+    <t>1.) v. to cultivate, to raise, to form [a habit], to acquire</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -339,6 +393,9 @@
   </si>
   <si>
     <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
   </si>
 </sst>
 </file>
@@ -696,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,10 +775,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -729,10 +786,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -740,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -751,10 +808,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -762,10 +819,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -773,10 +830,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -784,10 +841,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -795,10 +852,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -806,10 +863,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -817,10 +874,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -828,10 +885,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -839,10 +896,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -850,10 +907,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -861,10 +918,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -872,10 +929,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -883,10 +940,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -894,10 +951,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -905,10 +962,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -916,10 +973,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -927,10 +984,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -938,10 +995,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -949,10 +1006,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -960,10 +1017,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -971,10 +1028,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -982,10 +1039,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -993,10 +1050,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1004,10 +1061,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1015,10 +1072,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1026,10 +1083,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1037,10 +1094,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1048,10 +1105,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1059,10 +1116,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1070,10 +1127,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1081,10 +1138,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1092,10 +1149,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1103,10 +1160,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1114,10 +1171,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C38" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1125,10 +1182,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1136,10 +1193,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1147,10 +1204,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1158,10 +1215,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1169,10 +1226,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1180,10 +1237,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1191,10 +1248,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1202,10 +1259,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C46" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1213,10 +1270,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1224,10 +1281,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1235,10 +1292,109 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -194,6 +194,57 @@
   </si>
   <si>
     <t>养成</t>
+  </si>
+  <si>
+    <t>消息</t>
+  </si>
+  <si>
+    <t>热烈</t>
+  </si>
+  <si>
+    <t>褒贬不一</t>
+  </si>
+  <si>
+    <t>一举两得</t>
+  </si>
+  <si>
+    <t>鼓励</t>
+  </si>
+  <si>
+    <t>则</t>
+  </si>
+  <si>
+    <t>参考</t>
+  </si>
+  <si>
+    <t>侵犯</t>
+  </si>
+  <si>
+    <t>涉嫌</t>
+  </si>
+  <si>
+    <t>歧视</t>
+  </si>
+  <si>
+    <t>人士</t>
+  </si>
+  <si>
+    <t>亦或</t>
+  </si>
+  <si>
+    <t>焦虑</t>
+  </si>
+  <si>
+    <t>恶意</t>
+  </si>
+  <si>
+    <t>营销</t>
+  </si>
+  <si>
+    <t>值得</t>
+  </si>
+  <si>
+    <t>提倡</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -380,6 +431,57 @@
     <t>1.) v. to cultivate, to raise, to form [a habit], to acquire</t>
   </si>
   <si>
+    <t>1.) n. information, news</t>
+  </si>
+  <si>
+    <t>1.) adj. warm [welcome], enthusiastic, ardent</t>
+  </si>
+  <si>
+    <t>1.) n. phr. mixed reviews</t>
+  </si>
+  <si>
+    <t>1.) idiom. two birds with one stone</t>
+  </si>
+  <si>
+    <t>1.) v. encourage</t>
+  </si>
+  <si>
+    <t>1.) 就; 2.) 却</t>
+  </si>
+  <si>
+    <t>1.) n. consultation, reference; 2.) v. consult, refer</t>
+  </si>
+  <si>
+    <t>1.) v. infringe on, encroach on, violate</t>
+  </si>
+  <si>
+    <t>1.) adj. to be suspsect [in a crime], to be suspected of</t>
+  </si>
+  <si>
+    <t>1.) v. discriminate, look down upon; 2.) n. discrimination</t>
+  </si>
+  <si>
+    <t>1.) n. person, figure, public figure</t>
+  </si>
+  <si>
+    <t>1.) conj. or</t>
+  </si>
+  <si>
+    <t>1.) n. anxiety, worry, apprehension</t>
+  </si>
+  <si>
+    <t>1.) n. malice, spite, evil intention</t>
+  </si>
+  <si>
+    <t>1.) n. marketing</t>
+  </si>
+  <si>
+    <t>1.) adj. to be worth, to deserve</t>
+  </si>
+  <si>
+    <t>1.) n. promotion, advocacy; 2.) v. promote, advocate</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -396,6 +498,9 @@
   </si>
   <si>
     <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
   </si>
 </sst>
 </file>
@@ -753,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,10 +880,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -786,10 +891,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -797,10 +902,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -808,10 +913,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -819,10 +924,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -830,10 +935,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -841,10 +946,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -852,10 +957,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -863,10 +968,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -874,10 +979,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -885,10 +990,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -896,10 +1001,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -907,10 +1012,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -918,10 +1023,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -929,10 +1034,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -940,10 +1045,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -951,10 +1056,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -962,10 +1067,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -973,10 +1078,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -984,10 +1089,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -995,10 +1100,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1006,10 +1111,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1017,10 +1122,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1028,10 +1133,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1039,10 +1144,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1050,10 +1155,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1061,10 +1166,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1072,10 +1177,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1083,10 +1188,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1094,10 +1199,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1105,10 +1210,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1116,10 +1221,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1127,10 +1232,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1138,10 +1243,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1149,10 +1254,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1160,10 +1265,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1171,10 +1276,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1182,10 +1287,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1193,10 +1298,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1204,10 +1309,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1215,10 +1320,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1226,10 +1331,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1237,10 +1342,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1248,10 +1353,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1259,10 +1364,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1270,10 +1375,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1281,10 +1386,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C48" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1292,10 +1397,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1303,10 +1408,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1314,10 +1419,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1325,10 +1430,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1336,10 +1441,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1347,10 +1452,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C54" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1358,10 +1463,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1369,10 +1474,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1380,10 +1485,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1391,10 +1496,197 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>122</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -245,6 +245,45 @@
   </si>
   <si>
     <t>提倡</t>
+  </si>
+  <si>
+    <t>骚扰</t>
+  </si>
+  <si>
+    <t>气不忿儿</t>
+  </si>
+  <si>
+    <t>煽动者</t>
+  </si>
+  <si>
+    <t>初衷</t>
+  </si>
+  <si>
+    <t>节约</t>
+  </si>
+  <si>
+    <t>助力</t>
+  </si>
+  <si>
+    <t>推动</t>
+  </si>
+  <si>
+    <t>制止</t>
+  </si>
+  <si>
+    <t>歉意</t>
+  </si>
+  <si>
+    <t>周全</t>
+  </si>
+  <si>
+    <t>完善</t>
+  </si>
+  <si>
+    <t>精准</t>
+  </si>
+  <si>
+    <t>搭配</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -482,6 +521,45 @@
     <t>1.) n. promotion, advocacy; 2.) v. promote, advocate</t>
   </si>
   <si>
+    <t>1.) vt. harass</t>
+  </si>
+  <si>
+    <t>1.) v. be jealous, take another's success badly; 2.) v. be unable to contain one's anger</t>
+  </si>
+  <si>
+    <t>1.) n. demagogue</t>
+  </si>
+  <si>
+    <t>1.) n. original intent/aspiration</t>
+  </si>
+  <si>
+    <t>1.) v. economize, conserve; 2.) adj. frugal, economic</t>
+  </si>
+  <si>
+    <t>1.) n. a helping hand, help, assistance</t>
+  </si>
+  <si>
+    <t>1.) v. push forward, promote, to push [for acceptance], to actuate</t>
+  </si>
+  <si>
+    <t>1.) v. put a stop to, curb, to check, to limit</t>
+  </si>
+  <si>
+    <t>1.) n. apology; 2.) regret</t>
+  </si>
+  <si>
+    <t>1.) adj. thorough, comprehensive</t>
+  </si>
+  <si>
+    <t>1.) v. to perfect, to improve; 2.) adj. perfect</t>
+  </si>
+  <si>
+    <t>1.) adj. accurate, precise, exact; 2.) precision, accuracy</t>
+  </si>
+  <si>
+    <t>1.) v. pair up, match, arrange in pairs, add sth into a group</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -501,6 +579,9 @@
   </si>
   <si>
     <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
   </si>
 </sst>
 </file>
@@ -858,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -880,10 +961,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -891,10 +972,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -902,10 +983,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -913,10 +994,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -924,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -935,10 +1016,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -946,10 +1027,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -957,10 +1038,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -968,10 +1049,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -979,10 +1060,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -990,10 +1071,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1001,10 +1082,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1012,10 +1093,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1023,10 +1104,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C15" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1034,10 +1115,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1045,10 +1126,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1056,10 +1137,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1067,10 +1148,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1078,10 +1159,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1089,10 +1170,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1100,10 +1181,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1111,10 +1192,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C23" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1122,10 +1203,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C24" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1133,10 +1214,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1144,10 +1225,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1155,10 +1236,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1166,10 +1247,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1177,10 +1258,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1188,10 +1269,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1199,10 +1280,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1210,10 +1291,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1221,10 +1302,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1232,10 +1313,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1243,10 +1324,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1254,10 +1335,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1265,10 +1346,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1276,10 +1357,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1287,10 +1368,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1298,10 +1379,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1309,10 +1390,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1320,10 +1401,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1331,10 +1412,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1342,10 +1423,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1353,10 +1434,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C45" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1364,10 +1445,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1375,10 +1456,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1386,10 +1467,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C48" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1397,10 +1478,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1408,10 +1489,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C50" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1419,10 +1500,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1430,10 +1511,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1441,10 +1522,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1452,10 +1533,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="C54" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1463,10 +1544,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1474,10 +1555,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C56" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1485,10 +1566,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1496,10 +1577,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1507,10 +1588,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1518,10 +1599,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1529,10 +1610,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1540,10 +1621,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1551,10 +1632,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1562,10 +1643,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1573,10 +1654,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1584,10 +1665,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1595,10 +1676,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1606,10 +1687,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="C68" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1617,10 +1698,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C69" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1628,10 +1709,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="C70" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1639,10 +1720,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1650,10 +1731,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="C72" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1661,10 +1742,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1672,10 +1753,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1683,10 +1764,153 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="C75" t="s">
-        <v>157</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="192">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -284,6 +284,15 @@
   </si>
   <si>
     <t>搭配</t>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>授予</t>
+  </si>
+  <si>
+    <t>诺贝尔</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -560,6 +569,15 @@
     <t>1.) v. pair up, match, arrange in pairs, add sth into a group</t>
   </si>
   <si>
+    <t>1.) v. preserve, hold back, retain, reserve</t>
+  </si>
+  <si>
+    <t>1.) vt. award, confer, grand, endow</t>
+  </si>
+  <si>
+    <t>1.) Nobel Prize</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -582,6 +600,9 @@
   </si>
   <si>
     <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
   </si>
 </sst>
 </file>
@@ -939,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -972,10 +993,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -983,10 +1004,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -994,10 +1015,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1005,10 +1026,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1016,10 +1037,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1027,10 +1048,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1038,10 +1059,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1049,10 +1070,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1060,10 +1081,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1071,10 +1092,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1082,10 +1103,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1093,10 +1114,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1104,10 +1125,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1115,10 +1136,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1126,10 +1147,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1137,10 +1158,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C18" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1148,10 +1169,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1159,10 +1180,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1170,10 +1191,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1181,10 +1202,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1192,10 +1213,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1203,10 +1224,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1214,10 +1235,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1225,10 +1246,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1236,10 +1257,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1247,10 +1268,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1258,10 +1279,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1269,10 +1290,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1280,10 +1301,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1291,10 +1312,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1302,10 +1323,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1313,10 +1334,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1324,10 +1345,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1335,10 +1356,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1346,10 +1367,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1357,10 +1378,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1368,10 +1389,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1379,10 +1400,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1390,10 +1411,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C41" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1401,10 +1422,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1412,10 +1433,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1423,10 +1444,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1434,10 +1455,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1445,10 +1466,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1456,10 +1477,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1467,10 +1488,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1478,10 +1499,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1489,10 +1510,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1500,10 +1521,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1511,10 +1532,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1522,10 +1543,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1533,10 +1554,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1544,10 +1565,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1555,10 +1576,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C56" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1566,10 +1587,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1577,10 +1598,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1588,10 +1609,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1599,10 +1620,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1610,10 +1631,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1621,10 +1642,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1632,10 +1653,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C63" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1643,10 +1664,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1654,10 +1675,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1665,10 +1686,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C66" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1676,10 +1697,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1687,10 +1708,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C68" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1698,10 +1719,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C69" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1709,10 +1730,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1720,10 +1741,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1731,10 +1752,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1742,10 +1763,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1753,10 +1774,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1764,10 +1785,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1775,10 +1796,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1786,10 +1807,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1797,10 +1818,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1808,10 +1829,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1819,10 +1840,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1830,10 +1851,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C81" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1841,10 +1862,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C82" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1852,10 +1873,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1863,10 +1884,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1874,10 +1895,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C85" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1885,10 +1906,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1896,10 +1917,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1907,10 +1928,43 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>184</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="205">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -293,6 +293,24 @@
   </si>
   <si>
     <t>诺贝尔</t>
+  </si>
+  <si>
+    <t>终究</t>
+  </si>
+  <si>
+    <t>撇开</t>
+  </si>
+  <si>
+    <t>重重困难</t>
+  </si>
+  <si>
+    <t>上校</t>
+  </si>
+  <si>
+    <t>光风霁月</t>
+  </si>
+  <si>
+    <t>胸襟</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -578,6 +596,24 @@
     <t>1.) Nobel Prize</t>
   </si>
   <si>
+    <t>1.) adv. eventually; 2.) adv. in the end, afterall</t>
+  </si>
+  <si>
+    <t>1.) v. put aside; 2.) vt. bypass, dismiss; 3.) v. leave aside</t>
+  </si>
+  <si>
+    <t>1.) adj. thick-and-thin; 2.) phr. Numerous difficulties, one difficulty after another</t>
+  </si>
+  <si>
+    <t>1.) n. colonel</t>
+  </si>
+  <si>
+    <t>1.) phr. [lit.] a light breeze and clear moon, benign and openhearted, open and above board</t>
+  </si>
+  <si>
+    <t>1.) n. mind; 2.) n. breadth of mind</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -603,6 +639,9 @@
   </si>
   <si>
     <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
   </si>
 </sst>
 </file>
@@ -960,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,10 +1021,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -993,10 +1032,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1004,10 +1043,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1015,10 +1054,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1026,10 +1065,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1037,10 +1076,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1048,10 +1087,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1059,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1070,10 +1109,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1081,10 +1120,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1092,10 +1131,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1103,10 +1142,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1114,10 +1153,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1125,10 +1164,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1136,10 +1175,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1147,10 +1186,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1158,10 +1197,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1169,10 +1208,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1180,10 +1219,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1191,10 +1230,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1202,10 +1241,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1213,10 +1252,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1224,10 +1263,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1235,10 +1274,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1246,10 +1285,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1257,10 +1296,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1268,10 +1307,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1279,10 +1318,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1290,10 +1329,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1301,10 +1340,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1312,10 +1351,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1323,10 +1362,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1334,10 +1373,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C34" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1345,10 +1384,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C35" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1356,10 +1395,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1367,10 +1406,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1378,10 +1417,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1389,10 +1428,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1400,10 +1439,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1411,10 +1450,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1422,10 +1461,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1433,10 +1472,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1444,10 +1483,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1455,10 +1494,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1466,10 +1505,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1477,10 +1516,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C47" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1488,10 +1527,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1499,10 +1538,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1510,10 +1549,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1521,10 +1560,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1532,10 +1571,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1543,10 +1582,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1554,10 +1593,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1565,10 +1604,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1576,10 +1615,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1587,10 +1626,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1598,10 +1637,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1609,10 +1648,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1620,10 +1659,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1631,10 +1670,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1642,10 +1681,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1653,10 +1692,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1664,10 +1703,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1675,10 +1714,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1686,10 +1725,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1697,10 +1736,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1708,10 +1747,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1719,10 +1758,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1730,10 +1769,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1741,10 +1780,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1752,10 +1791,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1763,10 +1802,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1774,10 +1813,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1785,10 +1824,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1796,10 +1835,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1807,10 +1846,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1818,10 +1857,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C78" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1829,10 +1868,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C79" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1840,10 +1879,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C80" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1851,10 +1890,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1862,10 +1901,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C82" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1873,10 +1912,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1884,10 +1923,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1895,10 +1934,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1906,10 +1945,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1917,10 +1956,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1928,10 +1967,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C88" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1939,10 +1978,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1950,10 +1989,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1961,10 +2000,76 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>190</v>
+      </c>
+      <c r="C93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
         <v>191</v>
+      </c>
+      <c r="C94" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="220">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -311,6 +311,27 @@
   </si>
   <si>
     <t>胸襟</t>
+  </si>
+  <si>
+    <t>无畏</t>
+  </si>
+  <si>
+    <t>清誉</t>
+  </si>
+  <si>
+    <t>眼巴巴</t>
+  </si>
+  <si>
+    <t>扑灭</t>
+  </si>
+  <si>
+    <t>密密层层</t>
+  </si>
+  <si>
+    <t>违规</t>
+  </si>
+  <si>
+    <t>前车之鉴</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -614,6 +635,27 @@
     <t>1.) n. mind; 2.) n. breadth of mind</t>
   </si>
   <si>
+    <t>1.) adj. fearless, dauntless, unafraid</t>
+  </si>
+  <si>
+    <t>1.) n. a respectful word, referring to a good reputation or good name.</t>
+  </si>
+  <si>
+    <t>1.) adj. anxiously, helplessly</t>
+  </si>
+  <si>
+    <t>1.) vt. extinguish</t>
+  </si>
+  <si>
+    <t>1.) n. thick; 2.) adj. dense; 3.) misc. packed closely layer upon layer</t>
+  </si>
+  <si>
+    <t>1.) v. get out of line, disobey</t>
+  </si>
+  <si>
+    <t>1.) idiom. warning taken from the overturned cart ahead, lesson from the failure of one’s predecessor</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -642,6 +684,9 @@
   </si>
   <si>
     <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1021,10 +1066,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1032,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1043,10 +1088,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1054,10 +1099,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1065,10 +1110,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1076,10 +1121,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1087,10 +1132,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1098,10 +1143,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1109,10 +1154,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1120,10 +1165,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1131,10 +1176,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1142,10 +1187,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1153,10 +1198,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1164,10 +1209,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1175,10 +1220,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1186,10 +1231,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1197,10 +1242,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1208,10 +1253,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1219,10 +1264,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1230,10 +1275,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1241,10 +1286,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1252,10 +1297,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1263,10 +1308,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C24" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1274,10 +1319,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1285,10 +1330,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1296,10 +1341,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C27" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1307,10 +1352,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1318,10 +1363,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1329,10 +1374,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1340,10 +1385,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1351,10 +1396,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1362,10 +1407,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1373,10 +1418,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1384,10 +1429,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1395,10 +1440,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1406,10 +1451,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1417,10 +1462,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1428,10 +1473,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1439,10 +1484,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1450,10 +1495,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1461,10 +1506,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1472,10 +1517,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1483,10 +1528,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1494,10 +1539,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1505,10 +1550,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1516,10 +1561,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1527,10 +1572,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1538,10 +1583,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1549,10 +1594,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1560,10 +1605,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1571,10 +1616,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1582,10 +1627,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1593,10 +1638,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1604,10 +1649,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C55" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1615,10 +1660,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1626,10 +1671,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1637,10 +1682,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1648,10 +1693,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1659,10 +1704,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1670,10 +1715,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1681,10 +1726,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1692,10 +1737,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1703,10 +1748,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1714,10 +1759,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1725,10 +1770,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1736,10 +1781,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1747,10 +1792,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1758,10 +1803,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1769,10 +1814,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1780,10 +1825,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1791,10 +1836,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C72" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1802,10 +1847,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C73" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1813,10 +1858,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1824,10 +1869,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1835,10 +1880,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1846,10 +1891,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1857,10 +1902,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1868,10 +1913,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1879,10 +1924,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1890,10 +1935,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1901,10 +1946,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C82" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1912,10 +1957,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1923,10 +1968,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1934,10 +1979,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1945,10 +1990,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C86" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1956,10 +2001,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1967,10 +2012,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1978,10 +2023,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1989,10 +2034,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2000,10 +2045,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C91" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2011,10 +2056,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C92" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2022,10 +2067,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2033,10 +2078,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C94" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2044,10 +2089,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C95" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2055,10 +2100,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C96" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2066,10 +2111,87 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C97" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
         <v>204</v>
+      </c>
+      <c r="C100" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="237">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -332,6 +332,30 @@
   </si>
   <si>
     <t>前车之鉴</t>
+  </si>
+  <si>
+    <t>十足</t>
+  </si>
+  <si>
+    <t>虚荣心</t>
+  </si>
+  <si>
+    <t>秀丽</t>
+  </si>
+  <si>
+    <t>举止</t>
+  </si>
+  <si>
+    <t>端庄</t>
+  </si>
+  <si>
+    <t>可谓</t>
+  </si>
+  <si>
+    <t>天香国色</t>
+  </si>
+  <si>
+    <t>圣者</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -656,6 +680,30 @@
     <t>1.) idiom. warning taken from the overturned cart ahead, lesson from the failure of one’s predecessor</t>
   </si>
   <si>
+    <t>1.) n. 100%, pure and simple ,downright</t>
+  </si>
+  <si>
+    <t>1.) n. vanity, false pride, amour-propre</t>
+  </si>
+  <si>
+    <t>1.) adj. beautiful, pretty, handsome</t>
+  </si>
+  <si>
+    <t>1.) n. manner, behavior</t>
+  </si>
+  <si>
+    <t>1.) adj. dignified, demure, sedate</t>
+  </si>
+  <si>
+    <t>1.) phr. it may be said, one may well say, it may be called</t>
+  </si>
+  <si>
+    <t>1.) phr. heaven fragrance and national beauty</t>
+  </si>
+  <si>
+    <t>1.) n. Saint</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -687,6 +735,9 @@
   </si>
   <si>
     <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1077,10 +1128,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1088,10 +1139,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1099,10 +1150,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1110,10 +1161,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1121,10 +1172,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1132,10 +1183,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1143,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1154,10 +1205,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1165,10 +1216,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1176,10 +1227,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1187,10 +1238,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1198,10 +1249,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1209,10 +1260,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1220,10 +1271,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1231,10 +1282,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1242,10 +1293,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1253,10 +1304,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1264,10 +1315,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1275,10 +1326,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1286,10 +1337,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1297,10 +1348,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1308,10 +1359,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1319,10 +1370,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1330,10 +1381,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1341,10 +1392,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1352,10 +1403,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1363,10 +1414,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1374,10 +1425,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1385,10 +1436,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1396,10 +1447,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1407,10 +1458,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1418,10 +1469,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1429,10 +1480,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1440,10 +1491,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C36" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1451,10 +1502,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1462,10 +1513,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1473,10 +1524,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1484,10 +1535,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1495,10 +1546,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1506,10 +1557,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1517,10 +1568,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1528,10 +1579,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1539,10 +1590,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1550,10 +1601,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1561,10 +1612,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1572,10 +1623,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1583,10 +1634,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1594,10 +1645,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C50" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1605,10 +1656,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1616,10 +1667,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1627,10 +1678,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1638,10 +1689,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1649,10 +1700,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1660,10 +1711,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1671,10 +1722,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1682,10 +1733,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1693,10 +1744,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1704,10 +1755,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1715,10 +1766,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C61" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1726,10 +1777,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1737,10 +1788,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1748,10 +1799,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1759,10 +1810,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1770,10 +1821,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C66" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1781,10 +1832,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C67" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1792,10 +1843,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1803,10 +1854,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1814,10 +1865,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="C70" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1825,10 +1876,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1836,10 +1887,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1847,10 +1898,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1858,10 +1909,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C74" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1869,10 +1920,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1880,10 +1931,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1891,10 +1942,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C77" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1902,10 +1953,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1913,10 +1964,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C79" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1924,10 +1975,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1935,10 +1986,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="C81" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1946,10 +1997,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C82" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1957,10 +2008,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1968,10 +2019,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1979,10 +2030,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1990,10 +2041,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C86" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2001,10 +2052,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C87" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2012,10 +2063,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C88" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2023,10 +2074,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2034,10 +2085,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2045,10 +2096,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2056,10 +2107,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2067,10 +2118,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2078,10 +2129,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C94" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2089,10 +2140,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2100,10 +2151,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2111,10 +2162,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2122,10 +2173,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2133,10 +2184,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2144,10 +2195,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C100" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2155,10 +2206,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2166,10 +2217,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C102" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2177,10 +2228,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2188,10 +2239,98 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C104" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>217</v>
+      </c>
+      <c r="C105" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
         <v>219</v>
+      </c>
+      <c r="C107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="269">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -356,6 +356,51 @@
   </si>
   <si>
     <t>圣者</t>
+  </si>
+  <si>
+    <t>严格</t>
+  </si>
+  <si>
+    <t>著称</t>
+  </si>
+  <si>
+    <t>罐子</t>
+  </si>
+  <si>
+    <t>塑料</t>
+  </si>
+  <si>
+    <t>包含</t>
+  </si>
+  <si>
+    <t>面临</t>
+  </si>
+  <si>
+    <t>罚款</t>
+  </si>
+  <si>
+    <t>获刑</t>
+  </si>
+  <si>
+    <t>基督城</t>
+  </si>
+  <si>
+    <t>议会</t>
+  </si>
+  <si>
+    <t>新冠</t>
+  </si>
+  <si>
+    <t>疫情</t>
+  </si>
+  <si>
+    <t>封锁</t>
+  </si>
+  <si>
+    <t>废弃物</t>
+  </si>
+  <si>
+    <t>从未</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -704,6 +749,51 @@
     <t>1.) n. Saint</t>
   </si>
   <si>
+    <t>1.) adj. strict, stringent, tight, rigorous</t>
+  </si>
+  <si>
+    <t>1.) adj. celebrated, famous for</t>
+  </si>
+  <si>
+    <t>1.) n. jar, pitcher, pot</t>
+  </si>
+  <si>
+    <t>1.) n. plasticsc</t>
+  </si>
+  <si>
+    <t>1.) v. to contain, embody, include</t>
+  </si>
+  <si>
+    <t>1.) v. to face sth, to be confronted with</t>
+  </si>
+  <si>
+    <t>1.) v. to fine, to penalize; 2.) n. fine, penalty</t>
+  </si>
+  <si>
+    <t>1.) v. be be punished; 2.) n. punishment</t>
+  </si>
+  <si>
+    <t>1.) n. Christchurch, New Zealand</t>
+  </si>
+  <si>
+    <t>1.) n. parliament, legislative assembly</t>
+  </si>
+  <si>
+    <t>1.) n. novel coronavirus, SARS-CoV-2</t>
+  </si>
+  <si>
+    <t>1.) epidemic, pandemic</t>
+  </si>
+  <si>
+    <t>1.) v. to blockade, to seal off</t>
+  </si>
+  <si>
+    <t>1.) n. waste, garbage, offal, castoff</t>
+  </si>
+  <si>
+    <t>1.) adv. never</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -738,6 +828,12 @@
   </si>
   <si>
     <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,10 +1213,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1128,10 +1224,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1139,10 +1235,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1150,10 +1246,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1161,10 +1257,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1172,10 +1268,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1183,10 +1279,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1194,10 +1290,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1205,10 +1301,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1216,10 +1312,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1227,10 +1323,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1238,10 +1334,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1249,10 +1345,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1260,10 +1356,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1271,10 +1367,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1282,10 +1378,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1293,10 +1389,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1304,10 +1400,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1315,10 +1411,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1326,10 +1422,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1337,10 +1433,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1348,10 +1444,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1359,10 +1455,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1370,10 +1466,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1381,10 +1477,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1392,10 +1488,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1403,10 +1499,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1414,10 +1510,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C29" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1425,10 +1521,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1436,10 +1532,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1447,10 +1543,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C32" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1458,10 +1554,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1469,10 +1565,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1480,10 +1576,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1491,10 +1587,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1502,10 +1598,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1513,10 +1609,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1524,10 +1620,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1535,10 +1631,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1546,10 +1642,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1557,10 +1653,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C42" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1568,10 +1664,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1579,10 +1675,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1590,10 +1686,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1601,10 +1697,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1612,10 +1708,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1623,10 +1719,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1634,10 +1730,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1645,10 +1741,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C50" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1656,10 +1752,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1667,10 +1763,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1678,10 +1774,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1689,10 +1785,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1700,10 +1796,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1711,10 +1807,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C56" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1722,10 +1818,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C57" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1733,10 +1829,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1744,10 +1840,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1755,10 +1851,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1766,10 +1862,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1777,10 +1873,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1788,10 +1884,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1799,10 +1895,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1810,10 +1906,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1821,10 +1917,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1832,10 +1928,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1843,10 +1939,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1854,10 +1950,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1865,10 +1961,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1876,10 +1972,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="C71" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1887,10 +1983,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1898,10 +1994,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1909,10 +2005,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="C74" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1920,10 +2016,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1931,10 +2027,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1942,10 +2038,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C77" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1953,10 +2049,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1964,10 +2060,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C79" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1975,10 +2071,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1986,10 +2082,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1997,10 +2093,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2008,10 +2104,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2019,10 +2115,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2030,10 +2126,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="C85" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2041,10 +2137,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2052,10 +2148,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C87" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2063,10 +2159,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2074,10 +2170,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2085,10 +2181,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C90" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2096,10 +2192,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C91" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2107,10 +2203,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="C92" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2118,10 +2214,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C93" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2129,10 +2225,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C94" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2140,10 +2236,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2151,10 +2247,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2162,10 +2258,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C97" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2173,10 +2269,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C98" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2184,10 +2280,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C99" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2195,10 +2291,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="C100" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2206,10 +2302,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C101" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2217,10 +2313,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C102" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2228,10 +2324,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2239,10 +2335,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C104" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2250,10 +2346,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2261,10 +2357,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="C106" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2272,10 +2368,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2283,10 +2379,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C108" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2294,10 +2390,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C109" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2305,10 +2401,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2316,10 +2412,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C111" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2327,10 +2423,175 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>251</v>
+      </c>
+      <c r="C124" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/Databases/中文_words.xlsx
+++ b/Databases/中文_words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="292">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -401,6 +401,39 @@
   </si>
   <si>
     <t>从未</t>
+  </si>
+  <si>
+    <t>奉行</t>
+  </si>
+  <si>
+    <t>吝啬</t>
+  </si>
+  <si>
+    <t>泵</t>
+  </si>
+  <si>
+    <t>引擎</t>
+  </si>
+  <si>
+    <t>往复</t>
+  </si>
+  <si>
+    <t>螺旋桨</t>
+  </si>
+  <si>
+    <t>胡言乱语</t>
+  </si>
+  <si>
+    <t>谣言</t>
+  </si>
+  <si>
+    <t>暴力</t>
+  </si>
+  <si>
+    <t>蔓延</t>
+  </si>
+  <si>
+    <t>遗漏</t>
   </si>
   <si>
     <t>1.) n. catering;
@@ -794,6 +827,39 @@
     <t>1.) adv. never</t>
   </si>
   <si>
+    <t>1.) v. to pursue (a policy, etc.)</t>
+  </si>
+  <si>
+    <t>1.) n. parsimony; 2.) adj. mean, stingy, miserly, niggardly</t>
+  </si>
+  <si>
+    <t>1.) n. pump</t>
+  </si>
+  <si>
+    <t>1.) n. engine</t>
+  </si>
+  <si>
+    <t>1.) n. contact, intercourse; 2.) v. to reciprocate; 3.) misc. move back and forth</t>
+  </si>
+  <si>
+    <t>1.) n. propeller, airscrew, screw propeller; 2.) misc. windstick</t>
+  </si>
+  <si>
+    <t>1.) n. rave, balderdash, abracaabra, drivel, nonsense</t>
+  </si>
+  <si>
+    <t>1.) n. rumor</t>
+  </si>
+  <si>
+    <t>1.) n. violence</t>
+  </si>
+  <si>
+    <t>1.) n. cotagion; 2.) v. spread, creep, sprawl, extend</t>
+  </si>
+  <si>
+    <t>1.) v. to omit, leave out</t>
+  </si>
+  <si>
     <t>2020-11-25</t>
   </si>
   <si>
@@ -834,6 +900,9 @@
   </si>
   <si>
     <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C127"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1224,10 +1293,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1235,10 +1304,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1246,10 +1315,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1257,10 +1326,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1268,10 +1337,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1279,10 +1348,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1290,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1301,10 +1370,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1312,10 +1381,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1323,10 +1392,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1334,10 +1403,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1345,10 +1414,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1356,10 +1425,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1367,10 +1436,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1378,10 +1447,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1389,10 +1458,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1400,10 +1469,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1411,10 +1480,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1422,10 +1491,10 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1433,10 +1502,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1444,10 +1513,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1455,10 +1524,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1466,10 +1535,10 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1477,10 +1546,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1488,10 +1557,10 @@
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1499,10 +1568,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1510,10 +1579,10 @@
         <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1521,10 +1590,10 @@
         <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1532,10 +1601,10 @@
         <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1543,10 +1612,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1554,10 +1623,10 @@
         <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1565,10 +1634,10 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1576,10 +1645,10 @@
         <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1587,10 +1656,10 @@
         <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1598,10 +1667,10 @@
         <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1609,10 +1678,10 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1620,10 +1689,10 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1631,10 +1700,10 @@
         <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1642,10 +1711,10 @@
         <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1653,10 +1722,10 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C42" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1664,10 +1733,10 @@
         <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1675,10 +1744,10 @@
         <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1686,10 +1755,10 @@
         <v>46</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1697,10 +1766,10 @@
         <v>47</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1708,10 +1777,10 @@
         <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1719,10 +1788,10 @@
         <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1730,10 +1799,10 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1741,10 +1810,10 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1752,10 +1821,10 @@
         <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1763,10 +1832,10 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1774,10 +1843,10 @@
         <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1785,10 +1854,10 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1796,10 +1865,10 @@
         <v>56</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1807,10 +1876,10 @@
         <v>57</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1818,10 +1887,10 @@
         <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1829,10 +1898,10 @@
         <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1840,10 +1909,10 @@
         <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1851,10 +1920,10 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1862,10 +1931,10 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1873,10 +1942,10 @@
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C62" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1884,10 +1953,10 @@
         <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1895,10 +1964,10 @@
         <v>65</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1906,10 +1975,10 @@
         <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1917,10 +1986,10 @@
         <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1928,10 +1997,10 @@
         <v>68</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1939,10 +2008,10 @@
         <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1950,10 +2019,10 @@
         <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1961,10 +2030,10 @@
         <v>71</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1972,10 +2041,10 @@
         <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1983,10 +2052,10 @@
         <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1994,10 +2063,10 @@
         <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2005,10 +2074,10 @@
         <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2016,10 +2085,10 @@
         <v>76</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2027,10 +2096,10 @@
         <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2038,10 +2107,10 @@
         <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2049,10 +2118,10 @@
         <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2060,10 +2129,10 @@
         <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2071,10 +2140,10 @@
         <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2082,10 +2151,10 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2093,10 +2162,10 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2104,10 +2173,10 @@
         <v>84</v>
       </c>
       <c r="B83" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2115,10 +2184,10 @@
         <v>85</v>
       </c>
       <c r="B84" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2126,10 +2195,10 @@
         <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2137,10 +2206,10 @@
         <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2148,10 +2217,10 @@
         <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2159,10 +2228,10 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2170,10 +2239,10 @@
         <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2181,10 +2250,10 @@
         <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C90" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2192,10 +2261,10 @@
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C91" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2203,10 +2272,10 @@
         <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2214,10 +2283,10 @@
         <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C93" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2225,10 +2294,10 @@
         <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C94" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2236,10 +2305,10 @@
         <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C95" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2247,10 +2316,10 @@
         <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C96" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2258,10 +2327,10 @@
         <v>98</v>
       </c>
       <c r="B97" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2269,10 +2338,10 @@
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2280,10 +2349,10 @@
         <v>100</v>
       </c>
       <c r="B99" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C99" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2291,10 +2360,10 @@
         <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2302,10 +2371,10 @@
         <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C101" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2313,10 +2382,10 @@
         <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2324,10 +2393,10 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C103" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2335,10 +2404,10 @@
         <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C104" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2346,10 +2415,10 @@
         <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C105" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2357,10 +2426,10 @@
         <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="C106" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2368,10 +2437,10 @@
         <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C107" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2379,10 +2448,10 @@
         <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C108" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2390,10 +2459,10 @@
         <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C109" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2401,10 +2470,10 @@
         <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="C110" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2412,10 +2481,10 @@
         <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2423,10 +2492,10 @@
         <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C112" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2434,10 +2503,10 @@
         <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2445,10 +2514,10 @@
         <v>115</v>
       </c>
       <c r="B114" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2456,10 +2525,10 @@
         <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2467,10 +2536,10 @@
         <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2478,10 +2547,10 @@
         <v>118</v>
       </c>
       <c r="B117" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2489,10 +2558,10 @@
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="C118" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2500,10 +2569,10 @@
         <v>120</v>
       </c>
       <c r="B119" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C119" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2511,10 +2580,10 @@
         <v>121</v>
       </c>
       <c r="B120" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C120" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2522,10 +2591,10 @@
         <v>122</v>
       </c>
       <c r="B121" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2533,10 +2602,10 @@
         <v>123</v>
       </c>
       <c r="B122" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C122" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2544,10 +2613,10 @@
         <v>124</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="C123" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2555,10 +2624,10 @@
         <v>125</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C124" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2566,10 +2635,10 @@
         <v>126</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C125" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2577,10 +2646,10 @@
         <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C126" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2588,10 +2657,131 @@
         <v>128</v>
       </c>
       <c r="B127" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C127" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>267</v>
+      </c>
+      <c r="C129" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
         <v>268</v>
+      </c>
+      <c r="C130" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>270</v>
+      </c>
+      <c r="C132" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>271</v>
+      </c>
+      <c r="C133" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>273</v>
+      </c>
+      <c r="C135" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>274</v>
+      </c>
+      <c r="C136" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
